--- a/Data/gisaidavailable_sequences.xlsx
+++ b/Data/gisaidavailable_sequences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mavoeg/phylo_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949CBEF5-70A5-2246-94A4-D45A165454E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{097945DD-4545-C444-865F-BBAF0ABD48A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="960" windowWidth="30000" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="1420" windowWidth="30000" windowHeight="17720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Population data taken from the 2020 Census, US Census Bureau. GISAID Sequences for Urban/Rural in 2020. March is the column titled “3”, April “4” etc. Urban and Rural delineations are made according to the Wisconsin Rural Office of Health’s report.</t>
+    GISAID Sequences for Urban/Rural in 2020. March is the column titled “3”, etc.</t>
       </text>
     </comment>
   </commentList>
@@ -69,7 +69,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Population data taken from the 2020 Census, US Census Bureau. GISAID Sequences for Urban/Rural in 2020. GISAID Sequences for Urban/Rural in 2021. January is the column titled “1”, etc.</t>
+    GISAID Sequences for Urban/Rural in 2021. January is the column titled “1”, etc.</t>
       </text>
     </comment>
   </commentList>
@@ -87,7 +87,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Population data taken from the US 2020 Census. Sequence counts for urban and rural counties for January and Feb 2022. Sequence counts for urban and rural counties for January and Feb 2023. Urban and Rural delineation are made according to the Wisconsin Rural Office of Health’s health report.</t>
+    Sequence counts for urban and rural counties for January and Feb 2022</t>
       </text>
     </comment>
   </commentList>
@@ -105,7 +105,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Sequence counts for urban and rural counties for January and Feb 2023. Urban and Rural delineation are made according to the Wisconsin Rural Office of Health’s health report.</t>
+    Sequence counts for urban and rural counties for January and Feb 2023</t>
       </text>
     </comment>
   </commentList>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="187">
   <si>
     <t>Dane County</t>
   </si>
@@ -731,9 +731,6 @@
   </si>
   <si>
     <t>Population</t>
-  </si>
-  <si>
-    <t>urban rural</t>
   </si>
 </sst>
 </file>
@@ -743,7 +740,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -790,6 +787,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1554,13 +1557,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1571,9 +1577,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2740,7 +2743,7 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2023-04-24T22:13:24.17" personId="{3B561B45-62AD-FB46-9511-046F9D0B04C8}" id="{BF1D4F72-6F52-C44A-AB80-B8471F48DC96}">
-    <text>Population data taken from the 2020 Census, US Census Bureau. GISAID Sequences for Urban/Rural in 2020. March is the column titled “3”, April “4” etc. Urban and Rural delineations are made according to the Wisconsin Rural Office of Health’s report.</text>
+    <text>GISAID Sequences for Urban/Rural in 2020. March is the column titled “3”, etc.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2748,7 +2751,7 @@
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2023-04-24T22:12:36.99" personId="{3B561B45-62AD-FB46-9511-046F9D0B04C8}" id="{8A888C43-2508-9F40-8121-81089E267CF2}">
-    <text>Population data taken from the 2020 Census, US Census Bureau. GISAID Sequences for Urban/Rural in 2020. GISAID Sequences for Urban/Rural in 2021. January is the column titled “1”, etc.</text>
+    <text>GISAID Sequences for Urban/Rural in 2021. January is the column titled “1”, etc.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2756,7 +2759,7 @@
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2023-04-24T22:11:49.68" personId="{3B561B45-62AD-FB46-9511-046F9D0B04C8}" id="{6AF5A9D0-DBDC-EF4B-BA96-3EB3AD7FD47F}">
-    <text>Population data taken from the US 2020 Census. Sequence counts for urban and rural counties for January and Feb 2022. Sequence counts for urban and rural counties for January and Feb 2023. Urban and Rural delineation are made according to the Wisconsin Rural Office of Health’s health report.</text>
+    <text>Sequence counts for urban and rural counties for January and Feb 2022</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2764,7 +2767,7 @@
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2023-04-24T20:16:19.28" personId="{3B561B45-62AD-FB46-9511-046F9D0B04C8}" id="{F2433CF7-BFA8-A744-969D-D4BD9922482E}">
-    <text>Sequence counts for urban and rural counties for January and Feb 2023. Urban and Rural delineation are made according to the Wisconsin Rural Office of Health’s health report.</text>
+    <text>Sequence counts for urban and rural counties for January and Feb 2023</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2793,7 +2796,9 @@
   </sheetPr>
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4783,7 +4788,7 @@
     </row>
     <row r="49" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="65"/>
-      <c r="B49" s="83"/>
+      <c r="B49" s="84"/>
       <c r="C49" s="69"/>
       <c r="D49" s="69"/>
       <c r="E49" s="69"/>
@@ -5908,7 +5913,7 @@
     </row>
     <row r="77" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="19"/>
-      <c r="B77" s="84"/>
+      <c r="B77" s="85"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
@@ -5943,7 +5948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F801995-5732-6241-816E-12690A04CDC5}">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5953,22 +5958,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
@@ -9560,22 +9565,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
@@ -13333,7 +13338,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD1E761-0361-4D4C-AD1A-63F6ACC624A7}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13350,9 +13355,7 @@
       <c r="C1" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="61" t="s">
-        <v>187</v>
-      </c>
+      <c r="D1" s="61"/>
       <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -13365,9 +13368,6 @@
       <c r="C2" s="79">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -13380,12 +13380,9 @@
       <c r="C3" s="75">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>40</v>
       </c>
@@ -13395,9 +13392,7 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -13410,12 +13405,9 @@
       <c r="C5" s="75">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="39" t="s">
         <v>55</v>
       </c>
@@ -13425,12 +13417,10 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
         <v>48</v>
       </c>
@@ -13440,12 +13430,9 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="39" t="s">
         <v>51</v>
       </c>
@@ -13454,9 +13441,6 @@
       </c>
       <c r="C8">
         <v>0</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E8"/>
     </row>
@@ -13470,12 +13454,9 @@
       <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
         <v>11</v>
       </c>
@@ -13485,12 +13466,10 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="D10" s="81"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="39" t="s">
         <v>14</v>
       </c>
@@ -13500,12 +13479,9 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="39" t="s">
         <v>37</v>
       </c>
@@ -13515,12 +13491,9 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
         <v>61</v>
       </c>
@@ -13530,12 +13503,9 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="39" t="s">
         <v>75</v>
       </c>
@@ -13545,12 +13515,9 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
         <v>71</v>
       </c>
@@ -13560,12 +13527,9 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="39" t="s">
         <v>1</v>
       </c>
@@ -13575,12 +13539,9 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="39" t="s">
         <v>57</v>
       </c>
@@ -13590,12 +13551,9 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
         <v>63</v>
       </c>
@@ -13605,12 +13563,9 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="39" t="s">
         <v>26</v>
       </c>
@@ -13620,12 +13575,9 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
         <v>2</v>
       </c>
@@ -13635,12 +13587,9 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="39" t="s">
         <v>6</v>
       </c>
@@ -13650,12 +13599,9 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="39" t="s">
         <v>28</v>
       </c>
@@ -13665,12 +13611,9 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="39" t="s">
         <v>60</v>
       </c>
@@ -13680,812 +13623,668 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A24" s="76" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B25" s="75">
         <v>4</v>
       </c>
-      <c r="C24" s="75">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="39" t="s">
+      <c r="C25" s="75">
+        <v>0</v>
+      </c>
+      <c r="D25" s="81"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="32">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="39" t="s">
+      <c r="B26" s="32">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="32">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="39" t="s">
+      <c r="B27" s="32">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="32">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="39" t="s">
+      <c r="B28" s="32">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="32">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="39" t="s">
+      <c r="B29" s="32">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="32">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="39" t="s">
+      <c r="B30" s="32">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="32">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="39" t="s">
+      <c r="B31" s="32">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="32">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="39" t="s">
+      <c r="B32" s="32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A33" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="75">
-        <v>1</v>
-      </c>
-      <c r="C33" s="75">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>77</v>
+      <c r="B33" s="32">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="E33"/>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="75">
+        <v>1</v>
+      </c>
+      <c r="C34" s="75">
+        <v>0</v>
+      </c>
+      <c r="D34" s="81"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="75">
-        <v>2</v>
-      </c>
-      <c r="C34" s="75">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="39" t="s">
+      <c r="B35" s="75">
+        <v>2</v>
+      </c>
+      <c r="C35" s="75">
+        <v>0</v>
+      </c>
+      <c r="D35" s="81"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="32">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="39" t="s">
+      <c r="B36" s="32">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="32">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="39" t="s">
-        <v>3</v>
-      </c>
       <c r="B37" s="32">
         <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A38" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="75">
-        <v>1</v>
-      </c>
-      <c r="C38" s="75">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>77</v>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="32">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="E38"/>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="75">
+        <v>1</v>
+      </c>
+      <c r="C39" s="75">
+        <v>0</v>
+      </c>
+      <c r="D39" s="81"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A40" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="75">
-        <v>1</v>
-      </c>
-      <c r="C39" s="75">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A40" s="39" t="s">
+      <c r="B40" s="75">
+        <v>1</v>
+      </c>
+      <c r="C40" s="75">
+        <v>0</v>
+      </c>
+      <c r="D40" s="81"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="32">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="39" t="s">
+      <c r="B41" s="32">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="32">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="39" t="s">
+      <c r="B42" s="32">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="32">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A43" s="82" t="s">
+      <c r="B43" s="32">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A44" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="75">
-        <v>1</v>
-      </c>
-      <c r="C43" s="75">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A44" s="76" t="s">
-        <v>103</v>
-      </c>
       <c r="B44" s="75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="75">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="3"/>
       <c r="E44"/>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="75">
+        <v>0</v>
+      </c>
+      <c r="C45" s="75">
+        <v>1</v>
+      </c>
+      <c r="D45" s="81"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A46" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="75">
-        <v>1</v>
-      </c>
-      <c r="C45" s="75">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="39" t="s">
+      <c r="B46" s="75">
+        <v>1</v>
+      </c>
+      <c r="C46" s="75">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="36">
-        <v>0</v>
-      </c>
-      <c r="C46" s="7">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="39" t="s">
+      <c r="B47" s="36">
+        <v>0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="32">
-        <v>0</v>
-      </c>
-      <c r="C47" s="7">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A48" s="76" t="s">
+      <c r="B48" s="32">
+        <v>0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A49" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="75">
+      <c r="B49" s="75">
         <v>7</v>
       </c>
-      <c r="C48" s="75">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A49" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="75">
-        <f xml:space="preserve"> SUM(B2:B48)</f>
-        <v>25</v>
-      </c>
       <c r="C49" s="75">
-        <f>SUM(C2:C48)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="39"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="32">
+        <f>SUM(F3:F49)</f>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>SUM(G3:G49)</f>
+        <v>0</v>
+      </c>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="39" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="39"/>
+      <c r="B51" s="32"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="32">
-        <v>0</v>
-      </c>
-      <c r="C51" s="7">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="39" t="s">
+      <c r="B52" s="32">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="32">
-        <v>0</v>
-      </c>
-      <c r="C52" s="7">
-        <v>0</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A53" s="76" t="s">
+      <c r="B53" s="32">
+        <v>0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A54" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="75">
+      <c r="B54" s="75">
         <v>4</v>
       </c>
-      <c r="C53" s="75">
-        <v>0</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53"/>
-    </row>
-    <row r="54" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A54" s="39" t="s">
+      <c r="C54" s="75">
+        <v>0</v>
+      </c>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="32">
-        <v>0</v>
-      </c>
-      <c r="C54" s="7">
-        <v>0</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A55" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="B55" s="32">
         <v>0</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="32">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="32">
-        <v>0</v>
-      </c>
-      <c r="C56" s="7">
-        <v>0</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A57" s="76" t="s">
+      <c r="B57" s="32">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A58" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="75">
+      <c r="B58" s="75">
         <v>10</v>
       </c>
-      <c r="C57" s="7">
-        <v>0</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57"/>
-    </row>
-    <row r="58" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A58" s="39" t="s">
+      <c r="C58" s="7">
+        <v>0</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="32">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E58"/>
-    </row>
-    <row r="59" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A59" s="39" t="s">
+      <c r="B59" s="32">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="32">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E59"/>
-    </row>
-    <row r="60" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A60" s="39" t="s">
+      <c r="B60" s="32">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="32">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60"/>
-    </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A61" s="76" t="s">
+      <c r="B61" s="32">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A62" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="75">
+      <c r="B62" s="75">
         <v>8</v>
       </c>
-      <c r="C61" s="75">
-        <v>1</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61"/>
-    </row>
-    <row r="62" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="39" t="s">
+      <c r="C62" s="75">
+        <v>1</v>
+      </c>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="32">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62"/>
-    </row>
-    <row r="63" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A63" s="39" t="s">
+      <c r="B63" s="32">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="32">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63"/>
-    </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A64" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" s="75">
-        <v>8</v>
-      </c>
-      <c r="C64" s="75">
-        <v>0</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>78</v>
+      <c r="B64" s="32">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
       </c>
       <c r="E64"/>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="75">
+        <v>8</v>
+      </c>
+      <c r="C65" s="75">
+        <v>0</v>
+      </c>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A66" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="75">
+      <c r="B66" s="75">
         <v>149</v>
       </c>
-      <c r="C65" s="75">
+      <c r="C66" s="75">
         <v>41</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65"/>
-    </row>
-    <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="39" t="s">
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="32">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66"/>
-    </row>
-    <row r="67" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A67" s="39" t="s">
+      <c r="B67" s="32">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="32">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E67"/>
-    </row>
-    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A68" s="76" t="s">
+      <c r="B68" s="32">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A69" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="75">
+      <c r="B69" s="75">
         <v>8</v>
       </c>
-      <c r="C68" s="75">
-        <v>1</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68"/>
-    </row>
-    <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A69" s="39" t="s">
+      <c r="C69" s="75">
+        <v>1</v>
+      </c>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="32">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E69"/>
-    </row>
-    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A70" s="76" t="s">
+      <c r="B70" s="32">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A71" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="75">
+      <c r="B71" s="75">
         <v>8</v>
       </c>
-      <c r="C70" s="75">
-        <v>2</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70"/>
-    </row>
-    <row r="71" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A71" s="39" t="s">
+      <c r="C71" s="75">
+        <v>2</v>
+      </c>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="32">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E71"/>
-    </row>
-    <row r="72" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A72" s="39" t="s">
+      <c r="B72" s="32">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="32">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E72"/>
-    </row>
-    <row r="73" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A73" s="39" t="s">
+      <c r="B73" s="32">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="32">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E73"/>
-    </row>
-    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A74" s="76" t="s">
+      <c r="B74" s="32">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A75" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="B74" s="75">
+      <c r="B75" s="75">
         <v>14</v>
       </c>
-      <c r="C74" s="75">
-        <v>2</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E74"/>
-    </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A75" s="80" t="s">
+      <c r="C75" s="75">
+        <v>2</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A76" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="75">
+      <c r="B76" s="75">
         <v>53</v>
       </c>
-      <c r="C75" s="75">
+      <c r="C76" s="75">
         <v>7</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75"/>
-    </row>
-    <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="40" t="s">
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="32">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="15" t="s">
+      <c r="B77" s="32">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B77">
-        <f>SUM(B51:B76)</f>
+      <c r="B78">
+        <f>SUM(B52:B77)</f>
         <v>262</v>
       </c>
-      <c r="C77">
-        <f>SUM(C51:C76)</f>
+      <c r="C78">
+        <f>SUM(C52:C77)</f>
         <v>54</v>
       </c>
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E78" s="15"/>
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E79" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15095,10 +14894,10 @@
       <c r="A39" s="78">
         <v>44958</v>
       </c>
-      <c r="B39" s="85">
+      <c r="B39" s="86">
         <v>54</v>
       </c>
-      <c r="C39" s="85">
+      <c r="C39" s="86">
         <v>1</v>
       </c>
       <c r="D39">
@@ -15349,15 +15148,15 @@
       <c r="B14" s="81">
         <v>846</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="87">
         <v>246</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D14" s="88">
         <f t="shared" si="0"/>
         <v>492</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="73">
@@ -15366,15 +15165,15 @@
       <c r="B15" s="81">
         <v>694</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="87">
         <v>150</v>
       </c>
-      <c r="D15" s="87">
+      <c r="D15" s="88">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="73">
@@ -15383,15 +15182,15 @@
       <c r="B16" s="81">
         <v>1464</v>
       </c>
-      <c r="C16" s="86">
+      <c r="C16" s="87">
         <v>272</v>
       </c>
-      <c r="D16" s="87">
+      <c r="D16" s="88">
         <f t="shared" si="0"/>
         <v>544</v>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="73">
@@ -15400,15 +15199,15 @@
       <c r="B17" s="81">
         <v>1014</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="87">
         <v>304</v>
       </c>
-      <c r="D17" s="87">
+      <c r="D17" s="88">
         <f t="shared" si="0"/>
         <v>608</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="73">
@@ -15417,15 +15216,15 @@
       <c r="B18" s="81">
         <v>694</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="87">
         <v>178</v>
       </c>
-      <c r="D18" s="87">
+      <c r="D18" s="88">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="73">
@@ -15434,15 +15233,15 @@
       <c r="B19" s="81">
         <v>148</v>
       </c>
-      <c r="C19" s="86">
+      <c r="C19" s="87">
         <v>43</v>
       </c>
-      <c r="D19" s="87">
+      <c r="D19" s="88">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="73">
@@ -15451,15 +15250,15 @@
       <c r="B20" s="81">
         <v>1110</v>
       </c>
-      <c r="C20" s="86">
+      <c r="C20" s="87">
         <v>352</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="88">
         <f t="shared" si="0"/>
         <v>704</v>
       </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="73">
@@ -15468,15 +15267,15 @@
       <c r="B21" s="81">
         <v>1071</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="87">
         <v>627</v>
       </c>
-      <c r="D21" s="87">
+      <c r="D21" s="88">
         <f t="shared" si="0"/>
         <v>1254</v>
       </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="73">
@@ -15485,15 +15284,15 @@
       <c r="B22" s="81">
         <v>797</v>
       </c>
-      <c r="C22" s="86">
+      <c r="C22" s="87">
         <v>700</v>
       </c>
-      <c r="D22" s="87">
+      <c r="D22" s="88">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="73">
@@ -15502,15 +15301,15 @@
       <c r="B23" s="81">
         <v>581</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="87">
         <v>476</v>
       </c>
-      <c r="D23" s="87">
+      <c r="D23" s="88">
         <f t="shared" si="0"/>
         <v>952</v>
       </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="73">
@@ -15519,15 +15318,15 @@
       <c r="B24" s="81">
         <v>719</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="87">
         <v>300</v>
       </c>
-      <c r="D24" s="87">
+      <c r="D24" s="88">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="73">
@@ -15536,15 +15335,15 @@
       <c r="B25" s="81">
         <v>2023</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="87">
         <v>311</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="88">
         <f t="shared" si="0"/>
         <v>622</v>
       </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="74">
@@ -15553,15 +15352,15 @@
       <c r="B26" s="81">
         <v>1164</v>
       </c>
-      <c r="C26" s="86">
+      <c r="C26" s="87">
         <v>64</v>
       </c>
-      <c r="D26" s="87">
+      <c r="D26" s="88">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="74">
@@ -15570,15 +15369,15 @@
       <c r="B27" s="81">
         <v>453</v>
       </c>
-      <c r="C27" s="86">
+      <c r="C27" s="87">
         <v>52</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="88">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="74">
@@ -15587,15 +15386,15 @@
       <c r="B28" s="81">
         <v>860</v>
       </c>
-      <c r="C28" s="86">
+      <c r="C28" s="87">
         <v>110</v>
       </c>
-      <c r="D28" s="87">
+      <c r="D28" s="88">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="74">
@@ -15604,15 +15403,15 @@
       <c r="B29" s="81">
         <v>961</v>
       </c>
-      <c r="C29" s="86">
+      <c r="C29" s="87">
         <v>198</v>
       </c>
-      <c r="D29" s="87">
+      <c r="D29" s="88">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="74">
@@ -15621,15 +15420,15 @@
       <c r="B30" s="81">
         <v>1340</v>
       </c>
-      <c r="C30" s="86">
+      <c r="C30" s="87">
         <v>289</v>
       </c>
-      <c r="D30" s="87">
+      <c r="D30" s="88">
         <f t="shared" si="0"/>
         <v>578</v>
       </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="74">
@@ -15638,15 +15437,15 @@
       <c r="B31" s="81">
         <v>1424</v>
       </c>
-      <c r="C31" s="86">
+      <c r="C31" s="87">
         <v>438</v>
       </c>
-      <c r="D31" s="87">
+      <c r="D31" s="88">
         <f t="shared" si="0"/>
         <v>876</v>
       </c>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="74">
@@ -15655,15 +15454,15 @@
       <c r="B32" s="81">
         <v>835</v>
       </c>
-      <c r="C32" s="86">
+      <c r="C32" s="87">
         <v>189</v>
       </c>
-      <c r="D32" s="87">
+      <c r="D32" s="88">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="74">
@@ -15672,15 +15471,15 @@
       <c r="B33" s="81">
         <v>593</v>
       </c>
-      <c r="C33" s="86">
+      <c r="C33" s="87">
         <v>63</v>
       </c>
-      <c r="D33" s="87">
+      <c r="D33" s="88">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="74">
@@ -15689,15 +15488,15 @@
       <c r="B34" s="81">
         <v>228</v>
       </c>
-      <c r="C34" s="86">
+      <c r="C34" s="87">
         <v>15</v>
       </c>
-      <c r="D34" s="87">
+      <c r="D34" s="88">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="74">
@@ -15706,15 +15505,15 @@
       <c r="B35" s="81">
         <v>348</v>
       </c>
-      <c r="C35" s="86">
+      <c r="C35" s="87">
         <v>118</v>
       </c>
-      <c r="D35" s="87">
+      <c r="D35" s="88">
         <f t="shared" si="0"/>
         <v>236</v>
       </c>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="74">
@@ -15723,15 +15522,15 @@
       <c r="B36" s="81">
         <v>290</v>
       </c>
-      <c r="C36" s="86">
+      <c r="C36" s="87">
         <v>125</v>
       </c>
-      <c r="D36" s="87">
+      <c r="D36" s="88">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="74">
@@ -15740,49 +15539,49 @@
       <c r="B37" s="81">
         <v>351</v>
       </c>
-      <c r="C37" s="86">
+      <c r="C37" s="87">
         <v>145</v>
       </c>
-      <c r="D37" s="87">
+      <c r="D37" s="88">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="78">
         <v>44927</v>
       </c>
-      <c r="B38" s="88">
+      <c r="B38" s="89">
         <v>262</v>
       </c>
-      <c r="C38" s="87">
+      <c r="C38" s="88">
         <v>25</v>
       </c>
-      <c r="D38" s="87">
+      <c r="D38" s="88">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="78">
         <v>44958</v>
       </c>
-      <c r="B39" s="88">
+      <c r="B39" s="89">
         <v>54</v>
       </c>
-      <c r="C39" s="87">
-        <v>1</v>
-      </c>
-      <c r="D39" s="87">
+      <c r="C39" s="88">
+        <v>1</v>
+      </c>
+      <c r="D39" s="88">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
